--- a/templates/samples-10X.xlsx
+++ b/templates/samples-10X.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Groupdir/SUN-CPR-genomics-users/DIRECT-SEQUENCING-SUBMISSION/Templates_DO_NOT_OPEN_ONLY_COPY_THE_FILES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vzr191/local/bitbucket/snippets/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{6E644293-5668-4D42-A295-F1CA51368633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D867509-FA7E-4A8B-BC2B-B8AFDDC3D12A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC776992-D706-F748-BB44-C72BF9AAB71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="1160" windowWidth="12360" windowHeight="13200" xr2:uid="{341AD60B-12D2-3645-9A35-D8C294292595}"/>
+    <workbookView xWindow="420" yWindow="1160" windowWidth="23240" windowHeight="15100" activeTab="1" xr2:uid="{341AD60B-12D2-3645-9A35-D8C294292595}"/>
   </bookViews>
   <sheets>
     <sheet name="10X-with-antibody-hashes" sheetId="1" r:id="rId1"/>
     <sheet name="README" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,63 +37,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Nb_cells_expected</t>
+  </si>
+  <si>
+    <t>CGCTCATT</t>
+  </si>
+  <si>
+    <t>GAGATTCC</t>
+  </si>
+  <si>
+    <t>Hashing</t>
+  </si>
   <si>
     <t>GEX</t>
   </si>
   <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>Index</t>
+    <t>D2-2_CTRL</t>
+  </si>
+  <si>
+    <t>SI-TT-B3</t>
+  </si>
+  <si>
+    <t>D2-2_EXP</t>
+  </si>
+  <si>
+    <t>SI-TT-C3</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>D2-2_CTRL_HTO_D703</t>
+  </si>
+  <si>
+    <t>D2-2_EXP_HTO_D704</t>
+  </si>
+  <si>
+    <t>Hashes</t>
   </si>
   <si>
     <t>Genome</t>
   </si>
   <si>
-    <t>Nb_cells_expected</t>
-  </si>
-  <si>
-    <t>D2-2_CTRL</t>
-  </si>
-  <si>
-    <t>SI-TT-B3</t>
-  </si>
-  <si>
     <t>mm10</t>
   </si>
   <si>
-    <t>D2-2_EXP</t>
-  </si>
-  <si>
-    <t>SI-TT-C3</t>
-  </si>
-  <si>
-    <t>Hashing</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Corresponding sample</t>
-  </si>
-  <si>
-    <t>Hashes</t>
-  </si>
-  <si>
-    <t>D2-2_CTRL_HTO_D703</t>
-  </si>
-  <si>
-    <t>CGCTCATT</t>
-  </si>
-  <si>
-    <t>A0307,A0308,A0309,A310</t>
-  </si>
-  <si>
-    <t>D2-2_EXP_HTO_D704</t>
-  </si>
-  <si>
-    <t>GAGATTCC</t>
+    <t>A0307,A0308,A0309,A0310</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Dual</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Corresponding_sample</t>
   </si>
   <si>
     <t>Please refer to the documentation on</t>
@@ -106,7 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,7 +134,7 @@
     <font>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FF0066CC"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,17 +157,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -471,111 +478,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304713D2-CBC1-FA48-83C3-366544249A20}">
-  <dimension ref="A2:D10"/>
+  <dimension ref="A2:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -584,291 +609,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA5E5EF-F1CA-40DC-9679-1AE0B8C8C170}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D554F34-C25D-544A-A590-631F84537CC1}">
   <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{8B50CA4D-FEC8-468B-AB2C-D8A7919F5C4C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="344093a9-d904-4ffb-8b7b-de0b820fd76b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Comment xmlns="344093a9-d904-4ffb-8b7b-de0b820fd76b" xsi:nil="true"/>
-    <TaxCatchAll xmlns="5795b8a2-0df7-4793-b5f3-596dc329b202" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010015BC63EE602A9B4B90EAFA524706E7EC" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e71e259b67e8aef2a215662cb8c9d8ea">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="344093a9-d904-4ffb-8b7b-de0b820fd76b" xmlns:ns3="5795b8a2-0df7-4793-b5f3-596dc329b202" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b2507f855b6b64d912e69c4e78152a43" ns2:_="" ns3:_="">
-    <xsd:import namespace="344093a9-d904-4ffb-8b7b-de0b820fd76b"/>
-    <xsd:import namespace="5795b8a2-0df7-4793-b5f3-596dc329b202"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:Comment" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="344093a9-d904-4ffb-8b7b-de0b820fd76b" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="Comment" ma:index="3" nillable="true" ma:displayName="Comment" ma:format="Dropdown" ma:internalName="Comment" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="dd5578fd-35c2-4d8f-a1bf-4043a6e4e7a5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="16" nillable="true" ma:displayName="Location" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5795b8a2-0df7-4793-b5f3-596dc329b202" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:hidden="true" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:hidden="true" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ec383537-171c-4470-8ef1-2112c5efc6c0}" ma:internalName="TaxCatchAll" ma:readOnly="false" ma:showField="CatchAllData" ma:web="5795b8a2-0df7-4793-b5f3-596dc329b202">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8BB9FE0-961D-47AC-8704-249D6E037CEC}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15715E1C-165C-40A0-BD6D-441024448A01}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBFAFACD-3EEF-4B52-9F60-00FEBF146376}"/>
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{6a2630e2-1ac5-455e-8217-0156b1936a76}" enabled="1" method="Standard" siteId="{a3927f91-cda1-4696-af89-8c9f1ceffa91}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/templates/samples-10X.xlsx
+++ b/templates/samples-10X.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vzr191/local/bitbucket/snippets/Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumni.sharepoint.com/sites/UCPH_SUND_GENOMICS_PLATFORM/Shared Documents/General/Bioinformatics/samplesheet-templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC776992-D706-F748-BB44-C72BF9AAB71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="399" documentId="13_ncr:1_{EC776992-D706-F748-BB44-C72BF9AAB71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A0B6CC2-FF93-CB4A-BDF2-CCE19A040ACB}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="1160" windowWidth="23240" windowHeight="15100" activeTab="1" xr2:uid="{341AD60B-12D2-3645-9A35-D8C294292595}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{341AD60B-12D2-3645-9A35-D8C294292595}"/>
   </bookViews>
   <sheets>
     <sheet name="10X-with-antibody-hashes" sheetId="1" r:id="rId1"/>
-    <sheet name="README" sheetId="2" r:id="rId2"/>
+    <sheet name="library_type" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="README" sheetId="2" r:id="rId3"/>
+    <sheet name="genome" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +39,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+  <si>
+    <t>GEX</t>
+  </si>
   <si>
     <t>Sample</t>
   </si>
@@ -45,77 +50,134 @@
     <t>Index</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Genome</t>
+  </si>
+  <si>
     <t>Nb_cells_expected</t>
   </si>
   <si>
+    <t>D2-2_CTRL</t>
+  </si>
+  <si>
+    <t>SI-TT-B3</t>
+  </si>
+  <si>
+    <t>Dual</t>
+  </si>
+  <si>
+    <t>D2-2_EXP</t>
+  </si>
+  <si>
+    <t>SI-TT-C3</t>
+  </si>
+  <si>
+    <t>Hashing</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Index2</t>
+  </si>
+  <si>
+    <t>Corresponding_sample</t>
+  </si>
+  <si>
+    <t>Hashes</t>
+  </si>
+  <si>
+    <t>D2-2_CTRL_HTO_D703</t>
+  </si>
+  <si>
     <t>CGCTCATT</t>
   </si>
   <si>
     <t>GAGATTCC</t>
   </si>
   <si>
-    <t>Hashing</t>
-  </si>
-  <si>
-    <t>GEX</t>
-  </si>
-  <si>
-    <t>D2-2_CTRL</t>
-  </si>
-  <si>
-    <t>SI-TT-B3</t>
-  </si>
-  <si>
-    <t>D2-2_EXP</t>
-  </si>
-  <si>
-    <t>SI-TT-C3</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>D2-2_CTRL_HTO_D703</t>
+    <t>A0307,A0308,A0309,A0310</t>
   </si>
   <si>
     <t>D2-2_EXP_HTO_D704</t>
   </si>
   <si>
-    <t>Hashes</t>
-  </si>
-  <si>
-    <t>Genome</t>
-  </si>
-  <si>
-    <t>mm10</t>
-  </si>
-  <si>
-    <t>A0307,A0308,A0309,A0310</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Dual</t>
-  </si>
-  <si>
     <t>Single</t>
   </si>
   <si>
-    <t>Corresponding_sample</t>
-  </si>
-  <si>
     <t>Please refer to the documentation on</t>
   </si>
   <si>
     <t>https://sundgenomics.github.io/demux/</t>
+  </si>
+  <si>
+    <t>Plate Name</t>
+  </si>
+  <si>
+    <t>Plate prefix</t>
+  </si>
+  <si>
+    <t>Link to indexes</t>
+  </si>
+  <si>
+    <t>for available genome descriptions please refer to this link</t>
+  </si>
+  <si>
+    <t>SI-TT</t>
+  </si>
+  <si>
+    <t>https://cdn.10xgenomics.com/raw/upload/v1655151897/support/in-line%20documents/Dual_Index_Kit_TT_Set_A.csv</t>
+  </si>
+  <si>
+    <t>Dual Index Cell Surface Protein and CRISPR Screening libraries (Dual Index kit for hashes)</t>
+  </si>
+  <si>
+    <t>SI-NT</t>
+  </si>
+  <si>
+    <t>https://cdn.10xgenomics.com/raw/upload/v1655156424/support/in-line%20documents/Dual_Index_Kit_NT_Set_A.csv</t>
+  </si>
+  <si>
+    <t>Chromium Single Index kit for hashes (v3.1)</t>
+  </si>
+  <si>
+    <t>SI-GA</t>
+  </si>
+  <si>
+    <t>https://cdn.10xgenomics.com/raw/upload/v1655155615/support/in-line%20documents/Single_Index_Kit_T_Set_A.csv</t>
+  </si>
+  <si>
+    <t>Genome description</t>
+  </si>
+  <si>
+    <t>for available genome descriptions please refer to this link: https://sundgenomics.github.io/refgenie/</t>
+  </si>
+  <si>
+    <t>the newest precompiled cellranger reference genome</t>
+  </si>
+  <si>
+    <t>old cellranger precompiled genome</t>
+  </si>
+  <si>
+    <t>GRCm39</t>
+  </si>
+  <si>
+    <t>GRCh38</t>
+  </si>
+  <si>
+    <t>mm_legacy</t>
+  </si>
+  <si>
+    <t>hg_legacy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,6 +201,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2FFF12"/>
+      <name val="Andale Mono"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -157,15 +233,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -181,10 +265,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -222,7 +310,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -328,7 +416,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -470,7 +558,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -478,159 +566,688 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304713D2-CBC1-FA48-83C3-366544249A20}">
-  <dimension ref="A2:E10"/>
+  <dimension ref="A2:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24" style="3" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="22.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26" style="3" customWidth="1"/>
+    <col min="6" max="6" width="51.83203125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
+  <dataValidations count="11">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Leave this section empty if you have not used cell hashing." sqref="A7:G7" xr:uid="{A536435B-EE79-7345-AEB3-4ACAA717F6CE}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Which GEX library does this hashing library correspond to? _x000a__x000a_Choose from the drop-down list. " sqref="E9:E44" xr:uid="{6FBB2DB3-4523-9845-8E3C-887066AB586A}">
+      <formula1>$A$4:$A$6</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Index sequence of hashing library for the sample" sqref="B8:B44 C9:C10" xr:uid="{DD3BA01B-09BC-264C-A71E-166A43C23EAE}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Library type for hashing libraries: we recommend using Dual-indexed libraries for hashing libraries as the most recent good practice." sqref="D8" xr:uid="{135EEBBD-A70D-D646-929E-069FA061BCCC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Hashing oligo ID:_x000a__x000a_- please separate IDs with comma_x000a_- DO NOT USE SPACES" sqref="F8:F43" xr:uid="{422079CB-D03E-D841-B5AD-369F378FCAFD}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Which GEX library does this hashing library correspond to? _x000a__x000a_Choose from the drop-down list. " sqref="E8" xr:uid="{32506AA5-8FA6-1C47-BE59-25436B19AB5D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="NAMIING REQUIREMENTS:_x000a__x000a_1. Use only letters, numbers, '-' and '_'_x000a__x000a_2. No spaces, special characters (#, +, -, % or other funny things)_x000a__x000a_3. Start with a letter NOT a number (for R data processing reasons)_x000a__x000a_4. Each name must be unique" sqref="A8:A44 A3:A6" xr:uid="{A9050522-29C0-3942-A637-9CBBED82DCC3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="if you need to insert more cells to add more samples, you can unprotect sheet in _x000a_Review &gt; Unprotect Sheet" sqref="A2:F2" xr:uid="{9A1F9B54-5B53-E54C-841A-44B86C7EF535}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Index plate name and well number that was used for sample GEM preparation. For example write SI-TT-B3 if you used the well B3 in the 10X Dual Index Kit TT Set A" sqref="C3 C6 B3:B6" xr:uid="{3FA64148-F86F-784C-9EA2-B8235D1D2E75}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="FOR DUAL INDEXING HASHES ONLY:_x000a_Index2 sequence of hashing library for the sample." sqref="C8 C11:C44" xr:uid="{B1C2B1C8-4C0A-794B-AA35-C450C3078C10}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="expected number of cells" sqref="E6:F6 E3:E5" xr:uid="{82F8D75E-DF76-934B-9931-84616C11A2F1}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Library type for hashing libraries: we recommend using Dual-indexed libraries for hashing libraries as the most recent good practice." xr:uid="{110AFD21-E62F-3349-A24F-E26928842DD0}">
+          <x14:formula1>
+            <xm:f>library_type!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>D9:D44</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="10x genome reference. _x000a__x000a_Currently we recommend pre-compiled cellranger standard references from 2024 (GRCm39:2024-A and GRCh38:2024-A)._x000a__x000a_for more info see https://sundgenomics.github.io/refgenie/" xr:uid="{10FE73EC-4C5A-684D-A744-63C2C427E399}">
+          <x14:formula1>
+            <xm:f>genome!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>D6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Library type for hashing libraries: _x000a_- Only Dual-indexed libraries for GEX are allowed" xr:uid="{A5A3E340-4553-2F46-A503-BA790A087EE3}">
+          <x14:formula1>
+            <xm:f>library_type!$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4:C6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="10x genome reference. _x000a__x000a_recommended: _x000a_GRCm39: refdata-gex-GRCm39-2024-A   _x000a_GRCh38: refdata-gex-GRCh38-2024-A  _x000a__x000a_previously used:_x000a_mm10_legacy: refdata-gex-mm10-2020-A   _x000a_hg_legacy: refdata-gex-GRCh38-2020-A   " xr:uid="{96973BB4-12F4-AA41-95F8-D3004CC451F4}">
+          <x14:formula1>
+            <xm:f>genome!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D4:D5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Index plate name and well number that was used for sample GEM preparation. For example write SI-TT-B3 if you used the well B3 in the 10X Dual Index Kit TT Set A" xr:uid="{79ECC36C-D932-684A-8426-25C5CD243889}">
+          <x14:formula1>
+            <xm:f>library_type!$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4:C5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6131B382-B410-3343-8054-643E1BCAC5D0}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D554F34-C25D-544A-A590-631F84537CC1}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="100.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{E7C80B28-4F69-E240-A3FD-C77A953C226B}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{E66F418B-1A08-C34D-A45B-1E7537277CF3}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{3BBA7270-7D4C-7847-94DC-7BDED816BC72}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D554F34-C25D-544A-A590-631F84537CC1}">
-  <dimension ref="B2:B3"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88B5A47-C3B7-B248-97B7-B38E0C2B8557}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.1640625" customWidth="1"/>
+    <col min="2" max="2" width="89.83203125" customWidth="1"/>
+    <col min="3" max="3" width="56.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="344093a9-d904-4ffb-8b7b-de0b820fd76b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Comment xmlns="344093a9-d904-4ffb-8b7b-de0b820fd76b" xsi:nil="true"/>
+    <TaxCatchAll xmlns="5795b8a2-0df7-4793-b5f3-596dc329b202" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010015BC63EE602A9B4B90EAFA524706E7EC" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c795ee8d59f09dd7544917bf1c06f717">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="344093a9-d904-4ffb-8b7b-de0b820fd76b" xmlns:ns3="5795b8a2-0df7-4793-b5f3-596dc329b202" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37f359bcae6a8036bd82d72d7d81c8fb" ns2:_="" ns3:_="">
+    <xsd:import namespace="344093a9-d904-4ffb-8b7b-de0b820fd76b"/>
+    <xsd:import namespace="5795b8a2-0df7-4793-b5f3-596dc329b202"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:Comment" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="344093a9-d904-4ffb-8b7b-de0b820fd76b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="Comment" ma:index="3" nillable="true" ma:displayName="Comment" ma:format="Dropdown" ma:internalName="Comment" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="dd5578fd-35c2-4d8f-a1bf-4043a6e4e7a5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="16" nillable="true" ma:displayName="Location" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5795b8a2-0df7-4793-b5f3-596dc329b202" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:hidden="true" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:hidden="true" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ec383537-171c-4470-8ef1-2112c5efc6c0}" ma:internalName="TaxCatchAll" ma:readOnly="false" ma:showField="CatchAllData" ma:web="5795b8a2-0df7-4793-b5f3-596dc329b202">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C723E10-132C-4DBC-9C53-97097FF9AF59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5795b8a2-0df7-4793-b5f3-596dc329b202"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="344093a9-d904-4ffb-8b7b-de0b820fd76b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08C5187A-5401-46D3-A7F3-CB4FED327992}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="344093a9-d904-4ffb-8b7b-de0b820fd76b"/>
+    <ds:schemaRef ds:uri="5795b8a2-0df7-4793-b5f3-596dc329b202"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A257701-6BEB-4F08-8BC9-870C6F227A41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/templates/samples-10X.xlsx
+++ b/templates/samples-10X.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28619"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumni.sharepoint.com/sites/UCPH_SUND_GENOMICS_PLATFORM/Shared Documents/General/Bioinformatics/samplesheet-templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="399" documentId="13_ncr:1_{EC776992-D706-F748-BB44-C72BF9AAB71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A0B6CC2-FF93-CB4A-BDF2-CCE19A040ACB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98310055-09AC-4DD3-8D68-CF5F2F9D128A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{341AD60B-12D2-3645-9A35-D8C294292595}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="library_type" sheetId="3" state="hidden" r:id="rId2"/>
     <sheet name="README" sheetId="2" r:id="rId3"/>
     <sheet name="genome" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="Assay" sheetId="6" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>GEX</t>
   </si>
@@ -68,6 +69,9 @@
     <t>Dual</t>
   </si>
   <si>
+    <t>GRCm39</t>
+  </si>
+  <si>
     <t>D2-2_EXP</t>
   </si>
   <si>
@@ -158,26 +162,29 @@
     <t>the newest precompiled cellranger reference genome</t>
   </si>
   <si>
+    <t>GRCh38</t>
+  </si>
+  <si>
+    <t>mm_legacy</t>
+  </si>
+  <si>
     <t>old cellranger precompiled genome</t>
   </si>
   <si>
-    <t>GRCm39</t>
-  </si>
-  <si>
-    <t>GRCh38</t>
-  </si>
-  <si>
-    <t>mm_legacy</t>
-  </si>
-  <si>
     <t>hg_legacy</t>
+  </si>
+  <si>
+    <t>SCCT</t>
+  </si>
+  <si>
+    <t>ATAC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -237,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -246,7 +253,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -265,14 +271,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -310,7 +312,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -416,7 +418,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -558,7 +560,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -569,20 +571,20 @@
   <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="24" style="3" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="3"/>
-    <col min="4" max="4" width="22.1640625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="10.875" style="3"/>
+    <col min="4" max="4" width="22.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="26" style="3" customWidth="1"/>
-    <col min="6" max="6" width="51.83203125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="51.875" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -592,7 +594,7 @@
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -609,7 +611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -620,32 +622,32 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -653,35 +655,35 @@
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
@@ -690,27 +692,27 @@
         <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -725,7 +727,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Hashing oligo ID:_x000a__x000a_- please separate IDs with comma_x000a_- DO NOT USE SPACES" sqref="F8:F43" xr:uid="{422079CB-D03E-D841-B5AD-369F378FCAFD}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Which GEX library does this hashing library correspond to? _x000a__x000a_Choose from the drop-down list. " sqref="E8" xr:uid="{32506AA5-8FA6-1C47-BE59-25436B19AB5D}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="NAMIING REQUIREMENTS:_x000a__x000a_1. Use only letters, numbers, '-' and '_'_x000a__x000a_2. No spaces, special characters (#, +, -, % or other funny things)_x000a__x000a_3. Start with a letter NOT a number (for R data processing reasons)_x000a__x000a_4. Each name must be unique" sqref="A8:A44 A3:A6" xr:uid="{A9050522-29C0-3942-A637-9CBBED82DCC3}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="if you need to insert more cells to add more samples, you can unprotect sheet in _x000a_Review &gt; Unprotect Sheet" sqref="A2:F2" xr:uid="{9A1F9B54-5B53-E54C-841A-44B86C7EF535}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="if you need to insert more cells to add more samples, you can unprotect sheet in _x000a_Review &gt; Unprotect Sheet" sqref="B2:F2" xr:uid="{9A1F9B54-5B53-E54C-841A-44B86C7EF535}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Index plate name and well number that was used for sample GEM preparation. For example write SI-TT-B3 if you used the well B3 in the 10X Dual Index Kit TT Set A" sqref="C3 C6 B3:B6" xr:uid="{3FA64148-F86F-784C-9EA2-B8235D1D2E75}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="FOR DUAL INDEXING HASHES ONLY:_x000a_Index2 sequence of hashing library for the sample." sqref="C8 C11:C44" xr:uid="{B1C2B1C8-4C0A-794B-AA35-C450C3078C10}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="expected number of cells" sqref="E6:F6 E3:E5" xr:uid="{82F8D75E-DF76-934B-9931-84616C11A2F1}"/>
@@ -733,7 +735,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Library type for hashing libraries: we recommend using Dual-indexed libraries for hashing libraries as the most recent good practice." xr:uid="{110AFD21-E62F-3349-A24F-E26928842DD0}">
           <x14:formula1>
             <xm:f>library_type!$A$1:$A$2</xm:f>
@@ -764,6 +766,12 @@
           </x14:formula1>
           <xm:sqref>C4:C5</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="if you need to insert more cells to add more samples, you can unprotect sheet in _x000a_Review &gt; Unprotect Sheet" xr:uid="{89F576B6-4988-4126-AE36-20247D0DE2FD}">
+          <x14:formula1>
+            <xm:f>Assay!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -776,14 +784,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -802,80 +810,80 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="85.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="100.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="85.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="100.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -896,53 +904,84 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="34.1640625" customWidth="1"/>
-    <col min="2" max="2" width="89.83203125" customWidth="1"/>
-    <col min="3" max="3" width="56.1640625" customWidth="1"/>
+    <col min="1" max="1" width="34.125" customWidth="1"/>
+    <col min="2" max="2" width="89.875" customWidth="1"/>
+    <col min="3" max="3" width="56.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="C6" s="5"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="C8" s="2"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC71BA02-44B1-4369-AD9B-9E677B3C7E69}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -963,6 +1002,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010015BC63EE602A9B4B90EAFA524706E7EC" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c795ee8d59f09dd7544917bf1c06f717">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="344093a9-d904-4ffb-8b7b-de0b820fd76b" xmlns:ns3="5795b8a2-0df7-4793-b5f3-596dc329b202" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37f359bcae6a8036bd82d72d7d81c8fb" ns2:_="" ns3:_="">
     <xsd:import namespace="344093a9-d904-4ffb-8b7b-de0b820fd76b"/>
@@ -1197,57 +1245,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C723E10-132C-4DBC-9C53-97097FF9AF59}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5795b8a2-0df7-4793-b5f3-596dc329b202"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="344093a9-d904-4ffb-8b7b-de0b820fd76b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C723E10-132C-4DBC-9C53-97097FF9AF59}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08C5187A-5401-46D3-A7F3-CB4FED327992}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="344093a9-d904-4ffb-8b7b-de0b820fd76b"/>
-    <ds:schemaRef ds:uri="5795b8a2-0df7-4793-b5f3-596dc329b202"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A257701-6BEB-4F08-8BC9-870C6F227A41}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A257701-6BEB-4F08-8BC9-870C6F227A41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08C5187A-5401-46D3-A7F3-CB4FED327992}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
